--- a/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="21">
@@ -204,10 +204,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,81 +220,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,31 +243,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,61 +355,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,121 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,9 +566,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,30 +625,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,28 +653,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1203,7 +1203,7 @@
     <col min="13" max="13" width="18.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="2" customWidth="1"/>
     <col min="17" max="16383" width="11.625" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="11.625" style="1"/>
   </cols>
@@ -1226,7 +1226,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-      <c r="P1" s="3"/>
+      <c r="P1" s="5"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -1277,7 +1277,7 @@
       <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="24180" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,13 +174,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,15 +189,97 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,114 +309,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,6 +361,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,109 +487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,30 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,22 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +600,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -614,17 +624,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,15 +667,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,16 +687,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,141 +705,153 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,15 +1200,15 @@
   <sheetPr/>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.125" style="1" customWidth="1"/>
@@ -1204,130 +1222,130 @@
     <col min="14" max="14" width="17.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="2" customWidth="1"/>
     <col min="16" max="16" width="19.375" style="2" customWidth="1"/>
-    <col min="17" max="16383" width="11.625" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="11.625" style="1"/>
+    <col min="17" max="16383" width="11.625" style="3" customWidth="1"/>
+    <col min="16384" max="16384" width="11.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15" spans="1:19">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="10" t="s">
         <v>32</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
@@ -173,12 +173,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -209,15 +210,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +287,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -285,24 +309,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,37 +342,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +362,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,60 +464,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,19 +488,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,42 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,17 +571,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,15 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -624,22 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +659,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +688,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -824,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -842,10 +843,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1201,7 +1202,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="J3" sqref="J3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.5" outlineLevelRow="2"/>
@@ -1249,7 +1250,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" ht="15" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13200"/>
+    <workbookView windowWidth="27540" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:K3"/>
 </workbook>
 </file>
 
@@ -21,15 +22,6 @@
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -49,15 +41,6 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
           <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="P3")
 </t>
         </r>
@@ -174,14 +157,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +186,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -210,9 +281,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,59 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -287,61 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +352,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +466,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,19 +502,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,139 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,26 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,21 +583,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -632,15 +593,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,8 +615,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,31 +684,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,104 +723,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,26 +827,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1201,33 +1194,25 @@
   <sheetPr/>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="16" width="12.625" style="2" customWidth="1"/>
     <col min="17" max="16383" width="11.625" style="3" customWidth="1"/>
     <col min="16384" max="16384" width="11.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:19">
+    <row r="1" ht="30" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1246,11 +1231,11 @@
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
-    <row r="2" ht="15" spans="1:16">
+    <row r="2" ht="20" customHeight="1" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1278,29 +1263,29 @@
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" customHeight="1" spans="1:16">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1328,25 +1313,25 @@
       <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>32</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalGoods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="P4")
+          <t xml:space="preserve">jx:area(lastCell="P3")
 </t>
         </r>
       </text>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="P3")
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>采购汇总查询-商品汇总</t>
   </si>
@@ -154,37 +156,6 @@
   </si>
   <si>
     <t>${obj.taxAmount}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(J3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(K3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(L3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(M3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(N3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(O3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(P3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -207,6 +178,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -214,6 +186,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -221,22 +194,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,9 +293,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -327,74 +301,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -414,7 +320,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -693,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -836,40 +742,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
